--- a/doc/template/nak_k.xlsx
+++ b/doc/template/nak_k.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfk3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5900" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -302,13 +302,13 @@
     <t>Основной договор</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810000020012036, в банке Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге, БИК 046577501, к/с 30101810165770000501</t>
+    <t>ООО "Кайрос", ИНН 7203265990, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810200020012036, в банке Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА, БИК 044525411, к/с 30101810145250000411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -820,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1175,6 +1175,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,54 +1490,54 @@
   <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="0.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="2" style="1" customWidth="1"/>
     <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="1" style="1" customWidth="1"/>
     <col min="28" max="28" width="4" style="1" customWidth="1"/>
     <col min="29" max="29" width="0.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="0.77734375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="0.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="1" customWidth="1"/>
     <col min="33" max="33" width="2" style="1" customWidth="1"/>
     <col min="34" max="34" width="3.6640625" style="1" customWidth="1"/>
     <col min="35" max="35" width="2.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="5.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="1.109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="0.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="1.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="0.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="0.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117">
         <v>1</v>
       </c>
@@ -1576,7 +1579,7 @@
       <c r="AK1" s="117"/>
       <c r="AL1" s="117"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="3" t="s">
@@ -1622,7 +1625,7 @@
         <v>330212</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -1664,7 +1667,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="AH6" s="121"/>
       <c r="AL6" s="120"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1771,7 @@
       </c>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="122" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +1815,7 @@
       </c>
       <c r="AL8" s="11"/>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1847,12 +1850,12 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="123" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="113"/>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="AL10" s="112"/>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1927,7 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="112"/>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="AL12" s="112"/>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2006,7 @@
       <c r="AK13" s="108"/>
       <c r="AL13" s="112"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
@@ -2045,7 +2048,7 @@
       <c r="AK14" s="108"/>
       <c r="AL14" s="112"/>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="AK15" s="108"/>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="109" t="s">
         <v>14</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="AK16" s="108"/>
       <c r="AL16" s="7"/>
     </row>
-    <row r="17" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2134,21 +2137,21 @@
       <c r="AK17" s="108"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="1:40" s="18" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="18" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="18" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="18" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="106" t="s">
         <v>20</v>
@@ -2211,7 +2214,7 @@
       <c r="AL20" s="106"/>
       <c r="AM20" s="106"/>
     </row>
-    <row r="21" spans="1:40" s="18" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="18" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="106"/>
       <c r="C21" s="106" t="s">
@@ -2268,7 +2271,7 @@
       <c r="AL21" s="106"/>
       <c r="AM21" s="106"/>
     </row>
-    <row r="22" spans="1:40" s="22" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="22" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>1</v>
@@ -2339,7 +2342,7 @@
       <c r="AL22" s="104"/>
       <c r="AM22" s="104"/>
     </row>
-    <row r="23" spans="1:40" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="26" t="s">
         <v>72</v>
@@ -2400,7 +2403,7 @@
       <c r="AL23" s="94"/>
       <c r="AM23" s="94"/>
     </row>
-    <row r="24" spans="1:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -2453,7 +2456,7 @@
       <c r="AL24" s="99"/>
       <c r="AM24" s="99"/>
     </row>
-    <row r="25" spans="1:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -2513,7 +2516,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="60" t="s">
         <v>47</v>
       </c>
@@ -2554,7 +2557,7 @@
       <c r="AM28" s="73"/>
       <c r="AN28" s="74"/>
     </row>
-    <row r="29" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F29" s="87"/>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -2582,7 +2585,7 @@
       <c r="AM29" s="76"/>
       <c r="AN29" s="77"/>
     </row>
-    <row r="30" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="87"/>
       <c r="G30" s="87"/>
       <c r="H30" s="87"/>
@@ -2597,7 +2600,7 @@
       <c r="AM30" s="73"/>
       <c r="AN30" s="74"/>
     </row>
-    <row r="31" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="AM31" s="76"/>
       <c r="AN31" s="77"/>
     </row>
-    <row r="32" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="79" t="s">
         <v>47</v>
       </c>
@@ -2638,8 +2641,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:40" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:40" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +2675,7 @@
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="79" t="s">
         <v>47</v>
       </c>
@@ -2680,7 +2683,7 @@
       <c r="I35" s="79"/>
       <c r="S35" s="64"/>
     </row>
-    <row r="36" spans="2:40" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="66" t="s">
         <v>55</v>
       </c>
@@ -2710,7 +2713,7 @@
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
     </row>
-    <row r="37" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="85" t="s">
         <v>79</v>
       </c>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="Z37" s="60"/>
     </row>
-    <row r="38" spans="2:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="86" t="s">
         <v>47</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="2:40" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:40" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2834,7 @@
       <c r="R40" s="80"/>
       <c r="S40" s="80"/>
     </row>
-    <row r="41" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="69" t="s">
         <v>64</v>
       </c>
@@ -2869,7 +2872,7 @@
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
     </row>
-    <row r="42" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G42" s="60" t="s">
         <v>62</v>
       </c>
@@ -2907,7 +2910,7 @@
       <c r="AM42" s="79"/>
       <c r="AN42" s="79"/>
     </row>
-    <row r="43" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2943,7 +2946,7 @@
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="63" t="s">
         <v>61</v>
       </c>
@@ -2988,10 +2991,10 @@
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
     </row>
-    <row r="45" spans="2:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S45" s="64"/>
     </row>
-    <row r="46" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50" t="s">
